--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>169700</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>76400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>76400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>494900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>494900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>122100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>122100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>111800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>111800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>112800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>112800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>91100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>91100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>223800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>223800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>513300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>513300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>346900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>346900</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>638100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>638100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>645300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>645300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>432800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>432800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>382500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1065800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>1065800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>312800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>890700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>890700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>198700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>198700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>169900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>169900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>778800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>778800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>913900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>913900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>375500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>169100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>169100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1441100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>1441100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>2118000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1670"/>
+  <dimension ref="A1:I1671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58828,6 +58828,41 @@
         <v>2118000</v>
       </c>
     </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1671" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>2133500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1671"/>
+  <dimension ref="A1:I1672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58863,6 +58863,41 @@
         <v>2133500</v>
       </c>
     </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1672" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>6113900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1672"/>
+  <dimension ref="A1:I1673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58898,6 +58898,41 @@
         <v>6113900</v>
       </c>
     </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1673" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>1624200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1673"/>
+  <dimension ref="A1:I1674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58933,6 +58933,41 @@
         <v>1624200</v>
       </c>
     </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1674" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>1129900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1674"/>
+  <dimension ref="A1:I1675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58968,6 +58968,41 @@
         <v>1129900</v>
       </c>
     </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1675" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>1786400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1675"/>
+  <dimension ref="A1:I1676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59003,6 +59003,41 @@
         <v>1786400</v>
       </c>
     </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1676" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>1235400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1676"/>
+  <dimension ref="A1:I1677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59038,6 +59038,41 @@
         <v>1235400</v>
       </c>
     </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1677" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>1412800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1677"/>
+  <dimension ref="A1:I1678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59073,6 +59073,41 @@
         <v>1412800</v>
       </c>
     </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1678" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>1527100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1678"/>
+  <dimension ref="A1:I1679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59108,6 +59108,41 @@
         <v>1527100</v>
       </c>
     </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1679" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>982300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1679"/>
+  <dimension ref="A1:I1680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59143,6 +59143,41 @@
         <v>982300</v>
       </c>
     </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1680" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>620000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1680"/>
+  <dimension ref="A1:I1681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59178,6 +59178,41 @@
         <v>620000</v>
       </c>
     </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1681" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>211900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1681"/>
+  <dimension ref="A1:I1682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59213,6 +59213,41 @@
         <v>211900</v>
       </c>
     </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1682" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>109200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1682"/>
+  <dimension ref="A1:I1683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59248,6 +59248,41 @@
         <v>109200</v>
       </c>
     </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1683" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>268900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1683"/>
+  <dimension ref="A1:I1684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59283,6 +59283,41 @@
         <v>268900</v>
       </c>
     </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1684" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>125000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1684"/>
+  <dimension ref="A1:I1685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59318,6 +59318,41 @@
         <v>125000</v>
       </c>
     </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1685" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>512600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1685"/>
+  <dimension ref="A1:I1686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59353,6 +59353,41 @@
         <v>512600</v>
       </c>
     </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1686" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>426200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1686"/>
+  <dimension ref="A1:I1687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59388,6 +59388,41 @@
         <v>426200</v>
       </c>
     </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1687" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>391300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1687"/>
+  <dimension ref="A1:I1688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59423,6 +59423,41 @@
         <v>391300</v>
       </c>
     </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1688" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>349500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1688"/>
+  <dimension ref="A1:I1689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59458,6 +59458,41 @@
         <v>349500</v>
       </c>
     </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1689" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>804800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1689"/>
+  <dimension ref="A1:I1690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59493,6 +59493,41 @@
         <v>804800</v>
       </c>
     </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1690" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>457900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1690"/>
+  <dimension ref="A1:I1691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59528,6 +59528,41 @@
         <v>457900</v>
       </c>
     </row>
+    <row r="1691">
+      <c r="A1691" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1691" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>234400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1691"/>
+  <dimension ref="A1:I1692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59563,6 +59563,41 @@
         <v>234400</v>
       </c>
     </row>
+    <row r="1692">
+      <c r="A1692" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1692" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>225800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1692"/>
+  <dimension ref="A1:I1693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59598,6 +59598,41 @@
         <v>225800</v>
       </c>
     </row>
+    <row r="1693">
+      <c r="A1693" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1693" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>145400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1693"/>
+  <dimension ref="A1:I1694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59633,6 +59633,41 @@
         <v>145400</v>
       </c>
     </row>
+    <row r="1694">
+      <c r="A1694" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1694" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>187600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1694"/>
+  <dimension ref="A1:I1695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59668,6 +59668,41 @@
         <v>187600</v>
       </c>
     </row>
+    <row r="1695">
+      <c r="A1695" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1695" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>361800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1695"/>
+  <dimension ref="A1:I1697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59703,6 +59703,76 @@
         <v>361800</v>
       </c>
     </row>
+    <row r="1696">
+      <c r="A1696" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1696" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>745500</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1697" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>423600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1697"/>
+  <dimension ref="A1:I1698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59773,6 +59773,41 @@
         <v>423600</v>
       </c>
     </row>
+    <row r="1698">
+      <c r="A1698" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1698" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>142000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1698"/>
+  <dimension ref="A1:I1701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59808,6 +59808,111 @@
         <v>142000</v>
       </c>
     </row>
+    <row r="1699">
+      <c r="A1699" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1699" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1699" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>187400</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1700" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1700" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>145700</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1701" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1701" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>201000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1701"/>
+  <dimension ref="A1:I1702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59913,6 +59913,41 @@
         <v>201000</v>
       </c>
     </row>
+    <row r="1702">
+      <c r="A1702" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1702" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1702" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>106300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1702"/>
+  <dimension ref="A1:I1703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59948,6 +59948,41 @@
         <v>106300</v>
       </c>
     </row>
+    <row r="1703">
+      <c r="A1703" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1703" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>465100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5236.xlsx
+++ b/data/5236.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1703"/>
+  <dimension ref="A1:I1706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59983,6 +59983,111 @@
         <v>465100</v>
       </c>
     </row>
+    <row r="1704">
+      <c r="A1704" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1704" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>155100</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1705" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1705" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>179300</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="D1706" t="inlineStr">
+        <is>
+          <t>MATRIX</t>
+        </is>
+      </c>
+      <c r="E1706" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>258400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
